--- a/key/password.xlsx
+++ b/key/password.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\key\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\key\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B0286-AC30-4289-8AB4-59BD5E880CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15075" windowHeight="5805"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>vxvY9g8cRfeVdcaR</t>
   </si>
@@ -32,10 +33,6 @@
     <t>ibvwG3lYR0EZTsgB</t>
   </si>
   <si>
-    <t>PqLaMz91!"#$  /  BnGhTy56%&amp;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>base_Ae3rfsa34fd / Ar43eP32$#013dG</t>
   </si>
   <si>
@@ -124,24 +121,30 @@
   <si>
     <t>db server's dns</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: PqLaMz91!"#$ </t>
+  </si>
+  <si>
+    <t>Password: BnGhTy56%&amp;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -149,14 +152,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -241,8 +244,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -258,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -333,6 +336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -368,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,131 +580,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="14" spans="2:6">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2"/>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E14" t="s">
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="2" customFormat="1">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="26.25" thickBot="1">
+      <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="26.25" thickBot="1">
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="26.25" thickBot="1">
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="25.5">
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D25" t="s">
         <v>13</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -678,12 +718,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,12 +731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
